--- a/yuntu/工作量记录.xlsx
+++ b/yuntu/工作量记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>时间</t>
   </si>
@@ -38,6 +38,12 @@
   <si>
     <t>index.html</t>
   </si>
+  <si>
+    <t>2019.8.25</t>
+  </si>
+  <si>
+    <t>PourPlan/Index.html</t>
+  </si>
 </sst>
 </file>
 
@@ -49,7 +55,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,13 +102,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -238,31 +237,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,151 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,148 +585,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,7 +1109,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1143,7 +1142,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6">
         <f>SUM(E4:E42)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="2:5">
@@ -1161,10 +1160,18 @@
       </c>
     </row>
     <row r="5" ht="26" customHeight="1" spans="2:5">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="7">
+        <v>43702</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" ht="26" customHeight="1" spans="2:5">
       <c r="B6" s="8"/>

--- a/yuntu/工作量记录.xlsx
+++ b/yuntu/工作量记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>时间</t>
   </si>
@@ -44,6 +44,9 @@
   <si>
     <t>PourPlan/Index.html</t>
   </si>
+  <si>
+    <t>PourPlan/Index.html,PourPlan/SetConfigForm.html,TransDisp/Index.html</t>
+  </si>
 </sst>
 </file>
 
@@ -73,6 +76,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -133,13 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -194,6 +197,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -201,14 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -237,6 +240,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -249,78 +336,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -339,7 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,12 +402,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -375,49 +420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +603,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,128 +621,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,7 +756,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,6 +766,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,291 +1121,299 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="17.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="26" customHeight="1" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1" spans="2:5">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8">
         <f>SUM(E4:E42)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="2:5">
+      <c r="B4" s="9">
+        <v>43665</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="26" customHeight="1" spans="2:5">
+      <c r="B5" s="9">
+        <v>43702</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="26" customHeight="1" spans="2:5">
-      <c r="B4" s="7">
-        <v>43665</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8">
+    </row>
+    <row r="6" ht="72" customHeight="1" spans="2:5">
+      <c r="B6" s="9">
+        <v>43703</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1" spans="2:5">
-      <c r="B5" s="7">
-        <v>43702</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" ht="26" customHeight="1" spans="2:5">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
     <row r="7" ht="26" customHeight="1" spans="2:5">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" ht="26" customHeight="1" spans="2:5">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="26" customHeight="1" spans="2:5">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" ht="26" customHeight="1" spans="2:5">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="26" customHeight="1" spans="2:5">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
     </row>
     <row r="12" ht="26" customHeight="1" spans="2:5">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="26" customHeight="1" spans="2:5">
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" ht="26" customHeight="1" spans="2:5">
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="26" customHeight="1" spans="2:5">
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" ht="26" customHeight="1" spans="2:5">
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="26" customHeight="1" spans="2:5">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" ht="26" customHeight="1" spans="2:5">
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="2:5">
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" ht="26" customHeight="1" spans="2:5">
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="26" customHeight="1" spans="2:5">
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="2:5">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="2:5">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
     </row>
     <row r="24" ht="26" customHeight="1" spans="2:5">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="26" customHeight="1" spans="2:5">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" ht="26" customHeight="1" spans="2:5">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="26" customHeight="1" spans="2:5">
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" ht="26" customHeight="1" spans="2:5">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="26" customHeight="1" spans="2:5">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
     </row>
     <row r="30" ht="26" customHeight="1" spans="2:5">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="26" customHeight="1" spans="2:5">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
     </row>
     <row r="32" ht="26" customHeight="1" spans="2:5">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="26" customHeight="1" spans="2:5">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
     </row>
     <row r="34" ht="26" customHeight="1" spans="2:5">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="26" customHeight="1" spans="2:5">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
     </row>
     <row r="36" ht="26" customHeight="1" spans="2:5">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="26" customHeight="1" spans="2:5">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
     </row>
     <row r="38" ht="26" customHeight="1" spans="2:5">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="26" customHeight="1" spans="2:5">
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" ht="26" customHeight="1" spans="2:5">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="26" customHeight="1" spans="2:5">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" ht="26" customHeight="1" spans="2:5">
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/yuntu/工作量记录.xlsx
+++ b/yuntu/工作量记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="17400" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>时间</t>
   </si>
@@ -47,6 +47,9 @@
   <si>
     <t>PourPlan/Index.html,PourPlan/SetConfigForm.html,TransDisp/Index.html</t>
   </si>
+  <si>
+    <t>TransDisp/Index.html,IntellectPour/Index.html</t>
+  </si>
 </sst>
 </file>
 
@@ -76,6 +79,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,9 +139,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,113 +206,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -240,6 +243,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,18 +345,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,139 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,45 +489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -536,26 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +527,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,7 +1124,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E9 E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1154,7 +1157,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>SUM(E4:E42)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="2:5">
@@ -1200,10 +1203,18 @@
       </c>
     </row>
     <row r="7" ht="26" customHeight="1" spans="2:5">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="9">
+        <v>43704</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="2:5">
       <c r="B8" s="10"/>

--- a/yuntu/工作量记录.xlsx
+++ b/yuntu/工作量记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>时间</t>
   </si>
@@ -50,6 +50,9 @@
   <si>
     <t>TransDisp/Index.html,IntellectPour/Index.html</t>
   </si>
+  <si>
+    <t>PourStructuralMap/PourStructuralMap.html</t>
+  </si>
 </sst>
 </file>
 
@@ -79,7 +82,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,113 +190,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,25 +246,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,78 +403,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +492,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -500,6 +542,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,65 +589,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1124,7 +1127,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E9 E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1157,7 +1160,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>SUM(E4:E42)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="2:5">
@@ -1217,10 +1220,18 @@
       </c>
     </row>
     <row r="8" ht="26" customHeight="1" spans="2:5">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
+      <c r="B8" s="9">
+        <v>43751</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="2:5">
       <c r="B9" s="10"/>

--- a/yuntu/工作量记录.xlsx
+++ b/yuntu/工作量记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17400" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>时间</t>
   </si>
@@ -53,6 +53,9 @@
   <si>
     <t>PourStructuralMap/PourStructuralMap.html</t>
   </si>
+  <si>
+    <t>2020.4.14</t>
+  </si>
 </sst>
 </file>
 
@@ -203,23 +206,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +249,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,72 +423,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,96 +430,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,145 +600,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1130,7 @@
   <dimension ref="B2:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1160,7 +1163,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="8">
         <f>SUM(E4:E42)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1" spans="2:5">
@@ -1234,10 +1237,16 @@
       </c>
     </row>
     <row r="9" ht="26" customHeight="1" spans="2:5">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="9">
+        <v>43935</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" ht="26" customHeight="1" spans="2:5">
       <c r="B10" s="10"/>
